--- a/src/main/resources/rules-custom.xlsx
+++ b/src/main/resources/rules-custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xen/Downloads/boot-drools-decision/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244B212-0642-7142-AFFD-05DE5E3A21F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E593C89-89E2-2042-9A55-C42D4D5C73D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="520" windowWidth="34480" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="34480" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,22 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,7 +365,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:BT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -620,16 +620,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -652,18 +652,18 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:72" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -686,18 +686,18 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:72" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -727,7 +727,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -750,16 +750,16 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -806,82 +806,82 @@
       <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="24"/>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="24"/>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="24"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="24"/>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="24"/>
-      <c r="BT6" s="24"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="20"/>
     </row>
     <row r="7" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
